--- a/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Anodenstrom Uh 6.5 V.xlsx
+++ b/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Anodenstrom Uh 6.5 V.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD277E3-5798-422D-9E3A-D420D49C8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF61C20-A6DA-4817-9469-E6FBD568AABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -348,121 +348,810 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>-0.5</v>
+        <v>10.593999999999999</v>
       </c>
       <c r="B1">
-        <f>2*A1+1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>A1+1</f>
-        <v>0.5</v>
+        <v>19.82</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B11" si="0">2*A2+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A11" si="1">A2+1</f>
-        <v>1.5</v>
+        <v>31.074000000000002</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>40.024000000000001</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>50.02</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.157</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>59.594000000000001</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>70.522999999999996</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.696</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>80.257000000000005</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.94</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>90.42</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.1436999999999999</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>100.601</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>110.914</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>2.5371999999999999</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>120.15</v>
+      </c>
+      <c r="B12">
+        <v>2.65</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>130.21</v>
+      </c>
+      <c r="B13">
+        <v>2.72</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>139.63</v>
+      </c>
+      <c r="B14">
+        <v>2.7730999999999999</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>150.31</v>
+      </c>
+      <c r="B15">
+        <v>2.7974999999999999</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>160.55000000000001</v>
+      </c>
+      <c r="B16">
+        <v>2.8262</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>169.5</v>
+      </c>
+      <c r="B17">
+        <v>2.7269999999999999</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>180.36</v>
+      </c>
+      <c r="B18">
+        <v>2.88</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>190.57</v>
+      </c>
+      <c r="B19">
+        <v>2.7835000000000001</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>200.2</v>
+      </c>
+      <c r="B20">
+        <v>2.8795000000000002</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>210.45</v>
+      </c>
+      <c r="B21">
+        <v>2.8530000000000002</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>219.5</v>
+      </c>
+      <c r="B22">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>230.01</v>
+      </c>
+      <c r="B23">
+        <v>2.9129999999999998</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>239.89</v>
+      </c>
+      <c r="B24">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>250.53</v>
+      </c>
+      <c r="B25">
+        <v>2.8719999999999999</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>260.18</v>
+      </c>
+      <c r="B26">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>270.12</v>
+      </c>
+      <c r="B27">
+        <v>2.8862000000000001</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>280.3</v>
+      </c>
+      <c r="B28">
+        <v>2.92</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>290.99</v>
+      </c>
+      <c r="B29">
+        <v>2.9176000000000002</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>300.14</v>
+      </c>
+      <c r="B30">
+        <v>2.9392</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>310.33</v>
+      </c>
+      <c r="B31">
+        <v>2.9262999999999999</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>320.83999999999997</v>
+      </c>
+      <c r="B32">
+        <v>2.93</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>330.41</v>
+      </c>
+      <c r="B33">
+        <v>2.9155000000000002</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>340.58</v>
+      </c>
+      <c r="B34">
+        <v>2.9304999999999999</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>350.99</v>
+      </c>
+      <c r="B35">
+        <v>2.8351999999999999</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>360.76</v>
+      </c>
+      <c r="B36">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>370.8</v>
+      </c>
+      <c r="B37">
+        <v>3.1063999999999998</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>380.31</v>
+      </c>
+      <c r="B38">
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>390.65</v>
+      </c>
+      <c r="B39">
+        <v>3.1153</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>400.56</v>
+      </c>
+      <c r="B40">
+        <v>3.0529000000000002</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>410.96</v>
+      </c>
+      <c r="B41">
+        <v>2.9874999999999998</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>420.59</v>
+      </c>
+      <c r="B42">
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>429.99</v>
+      </c>
+      <c r="B43">
+        <v>3.0524</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>440.39</v>
+      </c>
+      <c r="B44">
+        <v>3.0024999999999999</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>450.65</v>
+      </c>
+      <c r="B45">
+        <v>3.0383</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>460.99</v>
+      </c>
+      <c r="B46">
+        <v>3.1253000000000002</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>470.87</v>
+      </c>
+      <c r="B47">
+        <v>3.1665999999999999</v>
+      </c>
+      <c r="C47">
+        <v>1000</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>480.72</v>
+      </c>
+      <c r="B48">
+        <v>3.1597</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>490.15</v>
+      </c>
+      <c r="B49">
+        <v>2.9853000000000001</v>
+      </c>
+      <c r="C49">
+        <v>1000</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>500.02</v>
+      </c>
+      <c r="B50">
+        <v>3.0165000000000002</v>
+      </c>
+      <c r="C50">
+        <v>1000</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>15.037000000000001</v>
+      </c>
+      <c r="B51">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>25.555</v>
+      </c>
+      <c r="B52">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>-500</v>
+      </c>
+      <c r="B53">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="C53">
+        <v>1000</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>-400.75</v>
+      </c>
+      <c r="B54">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>-300.61</v>
+      </c>
+      <c r="B55">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="C55">
+        <v>1000</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>-200.01</v>
+      </c>
+      <c r="B56">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="C56">
+        <v>1000</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>-99.9</v>
+      </c>
+      <c r="B57">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="C57">
+        <v>1000</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
